--- a/data/trans_bre/P21D_4_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P21D_4_R-Clase-trans_bre.xlsx
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.645000833411581</v>
+        <v>-1.7344736378073</v>
       </c>
       <c r="D8" s="6" t="inlineStr"/>
     </row>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-0.5267679226221417</v>
+        <v>-0.5267679226221418</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>-1</v>
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.175254000571</v>
+        <v>-2.86800294317566</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
     </row>
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8321579971586234</v>
+        <v>0.8321579971586236</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>2.360668466617066</v>
+        <v>2.360668466617067</v>
       </c>
     </row>
     <row r="14">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.1056806378810587</v>
+        <v>-0.04450106153475646</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-1</v>
+        <v>-0.68935906215475</v>
       </c>
     </row>
     <row r="15">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.910459948413627</v>
+        <v>2.013433909334376</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
     </row>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6043706152798853</v>
+        <v>0.6430737502676752</v>
       </c>
       <c r="D17" s="6" t="inlineStr"/>
     </row>
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.550202261246668</v>
+        <v>2.638502484205429</v>
       </c>
       <c r="D18" s="6" t="inlineStr"/>
     </row>
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.5902650626553585</v>
+        <v>0.5902650626553583</v>
       </c>
       <c r="D19" s="6" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1725292200695533</v>
+        <v>0.171284745638716</v>
       </c>
       <c r="D20" s="6" t="inlineStr"/>
     </row>
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.551068515220049</v>
+        <v>1.383490439340343</v>
       </c>
       <c r="D21" s="6" t="inlineStr"/>
     </row>
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1395016641365099</v>
+        <v>0.1103452178526518</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>0.04474586290393898</v>
+        <v>-0.0742477718693684</v>
       </c>
     </row>
     <row r="24">
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.917948647318764</v>
+        <v>0.9123320443656366</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>11.03962482325227</v>
+        <v>10.0483945566709</v>
       </c>
     </row>
     <row r="25">
